--- a/Documents/Proposed_SDA_Lab_Data_Column_Names_Changes.xlsx
+++ b/Documents/Proposed_SDA_Lab_Data_Column_Names_Changes.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\DSPHub\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Lab_Data_Mart_Documentation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF2196-0672-414C-AF45-0C2983AB63F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510224C5-05A6-4A16-B547-AFBB093680E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare_missing_in_NASIS" sheetId="3" r:id="rId1"/>
     <sheet name="Table_Colum_rename_SDA_Views" sheetId="4" r:id="rId2"/>
-    <sheet name="pivot" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="pivot" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7091" uniqueCount="1216">
   <si>
     <t>Logical Name</t>
   </si>
@@ -3643,6 +3644,36 @@
   </si>
   <si>
     <t>volume_pct_gt_2_mm_thirdbar_ws</t>
+  </si>
+  <si>
+    <t>mineral_content_loss_ignition_method</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bulk_density_rewet_oven_dry_method</t>
+  </si>
+  <si>
+    <t>bulk_density_odreconstituted_method</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>From:</t>
+  </si>
+  <si>
+    <t>volume_pct_75_to_250_mm_thirdbar_ws</t>
+  </si>
+  <si>
+    <t>volume_pct_20_to_75_mm_thirdbar_ws</t>
   </si>
 </sst>
 </file>
@@ -3854,39 +3885,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E8E8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4033,13 +4032,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FF000000"/>
         </left>
@@ -4055,7 +4047,46 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -11829,7 +11860,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE7498-074D-4CED-9409-8914CB1DBD69}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE7498-074D-4CED-9409-8914CB1DBD69}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A174" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -13465,7 +13496,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{87DDA11A-086D-43E1-9AE7-E2C82525D323}" name="Table8" displayName="Table8" ref="A1:D986" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{87DDA11A-086D-43E1-9AE7-E2C82525D323}" name="Table8" displayName="Table8" ref="A1:D986" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:D986" xr:uid="{69094F2D-5C2B-44D7-BBB0-1FC3E3F20F8D}">
     <filterColumn colId="0">
       <filters>
@@ -13489,18 +13520,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EE072DF1-4948-41FB-9058-E0D9C4396B06}" name="Table7" displayName="Table7" ref="A1:E949" totalsRowShown="0">
-  <autoFilter ref="A1:E949" xr:uid="{B9EDC3A8-D382-41CB-BA32-C18EC966E0D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EE072DF1-4948-41FB-9058-E0D9C4396B06}" name="Table7" displayName="Table7" ref="A1:F949" totalsRowShown="0">
+  <autoFilter ref="A1:F949" xr:uid="{B9EDC3A8-D382-41CB-BA32-C18EC966E0D8}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E949">
     <sortCondition ref="A2:A949"/>
     <sortCondition ref="B2:B949"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{48322CF8-C487-4B31-8DEE-32B0DADDFB74}" name="TABLE_NAME"/>
     <tableColumn id="2" xr3:uid="{3F331963-7430-4FBF-A9BE-05C718B96CC7}" name="COLUMN_NAME"/>
-    <tableColumn id="3" xr3:uid="{1EAC775D-90DC-46D0-B015-DA30F20C3435}" name="Column_cuttoff_name_check" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1EAC775D-90DC-46D0-B015-DA30F20C3435}" name="Column_cuttoff_name_check" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{684A3747-C1A2-4C1D-99AB-E41330DE197C}" name="adjust_view_name"/>
     <tableColumn id="5" xr3:uid="{DEE37A91-F469-46F5-B17C-4B6C699C7F23}" name="suggested_Name"/>
+    <tableColumn id="6" xr3:uid="{2B79656C-9289-4CF4-9812-350E2F3622EB}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -27632,10 +27670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F282176E-0E86-44D8-8388-ECEAB2BC0A82}">
-  <dimension ref="A1:E949"/>
+  <dimension ref="A1:F949"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:E903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27647,7 +27685,7 @@
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>967</v>
       </c>
@@ -27663,8 +27701,11 @@
       <c r="E1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -27676,7 +27717,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>741</v>
       </c>
@@ -27690,7 +27731,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>741</v>
       </c>
@@ -27702,7 +27743,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>741</v>
       </c>
@@ -27716,7 +27757,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>741</v>
       </c>
@@ -27730,7 +27771,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>741</v>
       </c>
@@ -27744,7 +27785,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>741</v>
       </c>
@@ -27758,7 +27799,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>741</v>
       </c>
@@ -27772,7 +27813,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>741</v>
       </c>
@@ -27786,7 +27827,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -27800,7 +27841,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>752</v>
       </c>
@@ -27814,7 +27855,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>752</v>
       </c>
@@ -27828,7 +27869,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>752</v>
       </c>
@@ -27842,7 +27883,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>752</v>
       </c>
@@ -27856,7 +27897,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>752</v>
       </c>
@@ -27870,7 +27911,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>752</v>
       </c>
@@ -27884,7 +27925,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>752</v>
       </c>
@@ -27898,7 +27939,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>752</v>
       </c>
@@ -27912,7 +27953,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>752</v>
       </c>
@@ -27926,7 +27967,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>752</v>
       </c>
@@ -27940,7 +27981,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>752</v>
       </c>
@@ -27954,7 +27995,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>752</v>
       </c>
@@ -27968,7 +28009,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>752</v>
       </c>
@@ -27982,7 +28023,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>766</v>
       </c>
@@ -27996,7 +28037,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>766</v>
       </c>
@@ -28010,7 +28051,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>766</v>
       </c>
@@ -28024,7 +28065,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>766</v>
       </c>
@@ -28038,7 +28079,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>766</v>
       </c>
@@ -28052,7 +28093,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>766</v>
       </c>
@@ -28066,7 +28107,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>766</v>
       </c>
@@ -28080,7 +28121,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>766</v>
       </c>
@@ -28094,7 +28135,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>766</v>
       </c>
@@ -28108,7 +28149,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>969</v>
       </c>
@@ -28122,7 +28163,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>969</v>
       </c>
@@ -28136,7 +28177,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>969</v>
       </c>
@@ -28167,7 +28208,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>969</v>
       </c>
@@ -28181,7 +28222,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>969</v>
       </c>
@@ -28195,7 +28236,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>969</v>
       </c>
@@ -28226,7 +28267,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>969</v>
       </c>
@@ -28240,7 +28281,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>969</v>
       </c>
@@ -28271,7 +28312,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>969</v>
       </c>
@@ -28285,7 +28326,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>969</v>
       </c>
@@ -28299,7 +28340,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>969</v>
       </c>
@@ -28313,7 +28354,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>969</v>
       </c>
@@ -28327,7 +28368,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>969</v>
       </c>
@@ -28341,7 +28382,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>969</v>
       </c>
@@ -28353,7 +28394,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>969</v>
       </c>
@@ -28367,7 +28408,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>969</v>
       </c>
@@ -28415,7 +28456,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>969</v>
       </c>
@@ -28429,7 +28470,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>969</v>
       </c>
@@ -28443,7 +28484,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>969</v>
       </c>
@@ -28457,7 +28498,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>969</v>
       </c>
@@ -28471,7 +28512,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>969</v>
       </c>
@@ -28485,7 +28526,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>969</v>
       </c>
@@ -28499,7 +28540,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>969</v>
       </c>
@@ -28530,7 +28571,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>969</v>
       </c>
@@ -28544,7 +28585,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>969</v>
       </c>
@@ -28558,7 +28599,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>969</v>
       </c>
@@ -28572,7 +28613,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>969</v>
       </c>
@@ -28586,7 +28627,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>969</v>
       </c>
@@ -28600,7 +28641,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>969</v>
       </c>
@@ -28614,7 +28655,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>969</v>
       </c>
@@ -28628,7 +28669,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>969</v>
       </c>
@@ -28642,7 +28683,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>969</v>
       </c>
@@ -28656,7 +28697,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>969</v>
       </c>
@@ -28670,7 +28711,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>969</v>
       </c>
@@ -28684,7 +28725,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>969</v>
       </c>
@@ -28698,7 +28739,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>969</v>
       </c>
@@ -28729,7 +28770,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>969</v>
       </c>
@@ -28743,7 +28784,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>969</v>
       </c>
@@ -28757,7 +28798,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>969</v>
       </c>
@@ -28788,7 +28829,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>969</v>
       </c>
@@ -28853,7 +28894,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>969</v>
       </c>
@@ -28867,7 +28908,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>969</v>
       </c>
@@ -28881,7 +28922,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>969</v>
       </c>
@@ -28895,7 +28936,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>969</v>
       </c>
@@ -28909,7 +28950,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>969</v>
       </c>
@@ -28923,7 +28964,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>969</v>
       </c>
@@ -28937,7 +28978,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>969</v>
       </c>
@@ -28951,7 +28992,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>969</v>
       </c>
@@ -28965,7 +29006,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>969</v>
       </c>
@@ -28979,7 +29020,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>969</v>
       </c>
@@ -28993,7 +29034,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>969</v>
       </c>
@@ -29007,7 +29048,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>969</v>
       </c>
@@ -29021,7 +29062,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>969</v>
       </c>
@@ -29035,7 +29076,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>969</v>
       </c>
@@ -29049,7 +29090,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>969</v>
       </c>
@@ -29063,7 +29104,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>969</v>
       </c>
@@ -29077,7 +29118,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>969</v>
       </c>
@@ -29091,7 +29132,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>969</v>
       </c>
@@ -29122,7 +29163,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>969</v>
       </c>
@@ -29136,7 +29177,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>969</v>
       </c>
@@ -29150,7 +29191,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>969</v>
       </c>
@@ -29164,7 +29205,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>969</v>
       </c>
@@ -29178,7 +29219,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>969</v>
       </c>
@@ -29192,7 +29233,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>969</v>
       </c>
@@ -29206,7 +29247,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>969</v>
       </c>
@@ -29220,7 +29261,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>969</v>
       </c>
@@ -29234,7 +29275,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>969</v>
       </c>
@@ -29248,7 +29289,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>969</v>
       </c>
@@ -29262,7 +29303,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>969</v>
       </c>
@@ -29276,7 +29317,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -29290,7 +29331,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -29304,7 +29345,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -29318,7 +29359,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -29332,7 +29373,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -29346,7 +29387,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -29360,7 +29401,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -29374,7 +29415,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -29388,7 +29429,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -29402,7 +29443,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -29416,7 +29457,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -29464,7 +29505,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -29478,7 +29519,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -29492,7 +29533,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -29506,7 +29547,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -29520,7 +29561,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -29534,7 +29575,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -29548,7 +29589,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -29562,7 +29603,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -29576,7 +29617,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>126</v>
       </c>
@@ -29590,7 +29631,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -29604,7 +29645,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -29618,7 +29659,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -29632,7 +29673,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -29646,7 +29687,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>126</v>
       </c>
@@ -29660,7 +29701,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -29674,7 +29715,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>126</v>
       </c>
@@ -29688,7 +29729,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>126</v>
       </c>
@@ -29702,7 +29743,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>126</v>
       </c>
@@ -29716,7 +29757,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>126</v>
       </c>
@@ -29730,7 +29771,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>126</v>
       </c>
@@ -29744,7 +29785,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>126</v>
       </c>
@@ -29758,7 +29799,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>126</v>
       </c>
@@ -29772,7 +29813,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>126</v>
       </c>
@@ -29786,7 +29827,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>126</v>
       </c>
@@ -29800,7 +29841,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>126</v>
       </c>
@@ -29814,7 +29855,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>126</v>
       </c>
@@ -29828,7 +29869,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>126</v>
       </c>
@@ -29842,7 +29883,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>126</v>
       </c>
@@ -29856,7 +29897,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>126</v>
       </c>
@@ -29887,7 +29928,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -29901,7 +29942,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>126</v>
       </c>
@@ -29915,7 +29956,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>126</v>
       </c>
@@ -29929,7 +29970,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>126</v>
       </c>
@@ -29943,7 +29984,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>126</v>
       </c>
@@ -29974,7 +30015,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>126</v>
       </c>
@@ -29988,7 +30029,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -30002,7 +30043,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>126</v>
       </c>
@@ -30016,7 +30057,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -30030,7 +30071,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>126</v>
       </c>
@@ -30044,7 +30085,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>126</v>
       </c>
@@ -30058,7 +30099,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>126</v>
       </c>
@@ -30072,7 +30113,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>126</v>
       </c>
@@ -30086,7 +30127,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>126</v>
       </c>
@@ -30117,7 +30158,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>126</v>
       </c>
@@ -30131,7 +30172,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>126</v>
       </c>
@@ -30145,7 +30186,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>126</v>
       </c>
@@ -30159,7 +30200,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -30190,7 +30231,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>126</v>
       </c>
@@ -30204,7 +30245,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>126</v>
       </c>
@@ -30218,7 +30259,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -30232,7 +30273,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>126</v>
       </c>
@@ -30246,7 +30287,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>126</v>
       </c>
@@ -30260,7 +30301,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>126</v>
       </c>
@@ -30274,7 +30315,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>126</v>
       </c>
@@ -30288,7 +30329,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -30319,7 +30360,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -30333,7 +30374,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -30347,7 +30388,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -30361,7 +30402,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -30375,7 +30416,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -30389,7 +30430,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -30403,7 +30444,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>126</v>
       </c>
@@ -30417,7 +30458,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>126</v>
       </c>
@@ -30431,7 +30472,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -30445,7 +30486,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>126</v>
       </c>
@@ -30459,7 +30500,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>126</v>
       </c>
@@ -30473,7 +30514,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>126</v>
       </c>
@@ -30487,7 +30528,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>126</v>
       </c>
@@ -30501,7 +30542,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>126</v>
       </c>
@@ -30515,7 +30556,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>126</v>
       </c>
@@ -30529,7 +30570,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>126</v>
       </c>
@@ -30543,7 +30584,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>126</v>
       </c>
@@ -30557,7 +30598,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>126</v>
       </c>
@@ -30571,7 +30612,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>126</v>
       </c>
@@ -30583,7 +30624,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>126</v>
       </c>
@@ -30597,7 +30638,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>126</v>
       </c>
@@ -30611,7 +30652,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>126</v>
       </c>
@@ -30625,7 +30666,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>126</v>
       </c>
@@ -30639,7 +30680,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>126</v>
       </c>
@@ -30653,7 +30694,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -30667,7 +30708,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -30681,7 +30722,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>126</v>
       </c>
@@ -30695,7 +30736,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>126</v>
       </c>
@@ -30709,7 +30750,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>126</v>
       </c>
@@ -30723,7 +30764,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>126</v>
       </c>
@@ -30737,7 +30778,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>126</v>
       </c>
@@ -30751,7 +30792,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>126</v>
       </c>
@@ -30765,7 +30806,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>126</v>
       </c>
@@ -30779,7 +30820,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>126</v>
       </c>
@@ -30793,7 +30834,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>126</v>
       </c>
@@ -30807,7 +30848,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>126</v>
       </c>
@@ -30821,7 +30862,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>126</v>
       </c>
@@ -30835,7 +30876,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>126</v>
       </c>
@@ -30849,7 +30890,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>126</v>
       </c>
@@ -30863,7 +30904,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>126</v>
       </c>
@@ -30894,7 +30935,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>126</v>
       </c>
@@ -30908,7 +30949,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>126</v>
       </c>
@@ -30922,7 +30963,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>126</v>
       </c>
@@ -30936,7 +30977,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>126</v>
       </c>
@@ -30950,7 +30991,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>126</v>
       </c>
@@ -30964,7 +31005,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>126</v>
       </c>
@@ -30978,7 +31019,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>126</v>
       </c>
@@ -30992,7 +31033,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>126</v>
       </c>
@@ -31006,7 +31047,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>126</v>
       </c>
@@ -31020,7 +31061,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>126</v>
       </c>
@@ -31034,7 +31075,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>126</v>
       </c>
@@ -31048,7 +31089,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>126</v>
       </c>
@@ -31062,7 +31103,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>126</v>
       </c>
@@ -31076,7 +31117,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -31090,7 +31131,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>126</v>
       </c>
@@ -31104,7 +31145,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>126</v>
       </c>
@@ -31118,7 +31159,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>126</v>
       </c>
@@ -31132,7 +31173,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>126</v>
       </c>
@@ -31146,7 +31187,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>126</v>
       </c>
@@ -31160,7 +31201,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>126</v>
       </c>
@@ -31174,7 +31215,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>126</v>
       </c>
@@ -31188,7 +31229,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>126</v>
       </c>
@@ -31202,7 +31243,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>126</v>
       </c>
@@ -31216,7 +31257,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>126</v>
       </c>
@@ -31230,7 +31271,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>126</v>
       </c>
@@ -31244,7 +31285,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>126</v>
       </c>
@@ -31258,7 +31299,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>126</v>
       </c>
@@ -31272,7 +31313,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>126</v>
       </c>
@@ -31286,7 +31327,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>126</v>
       </c>
@@ -31300,7 +31341,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>126</v>
       </c>
@@ -31314,7 +31355,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>126</v>
       </c>
@@ -31328,7 +31369,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>126</v>
       </c>
@@ -31342,7 +31383,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>126</v>
       </c>
@@ -31356,7 +31397,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>126</v>
       </c>
@@ -31370,7 +31411,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>126</v>
       </c>
@@ -31401,7 +31442,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>126</v>
       </c>
@@ -31415,7 +31456,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -31429,7 +31470,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -31443,7 +31484,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>126</v>
       </c>
@@ -31457,7 +31498,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>126</v>
       </c>
@@ -31488,7 +31529,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>126</v>
       </c>
@@ -31502,7 +31543,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>126</v>
       </c>
@@ -31516,7 +31557,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>126</v>
       </c>
@@ -31530,7 +31571,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>126</v>
       </c>
@@ -31544,7 +31585,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>126</v>
       </c>
@@ -31558,7 +31599,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>126</v>
       </c>
@@ -31572,7 +31613,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>126</v>
       </c>
@@ -31586,7 +31627,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>126</v>
       </c>
@@ -31600,7 +31641,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>126</v>
       </c>
@@ -31614,7 +31655,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>126</v>
       </c>
@@ -31628,7 +31669,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>126</v>
       </c>
@@ -31642,7 +31683,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>126</v>
       </c>
@@ -31656,7 +31697,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>126</v>
       </c>
@@ -31670,7 +31711,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>126</v>
       </c>
@@ -31684,7 +31725,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>126</v>
       </c>
@@ -31698,7 +31739,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>126</v>
       </c>
@@ -31712,7 +31753,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>126</v>
       </c>
@@ -31726,7 +31767,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>126</v>
       </c>
@@ -31740,7 +31781,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>126</v>
       </c>
@@ -31754,7 +31795,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>126</v>
       </c>
@@ -31768,7 +31809,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>126</v>
       </c>
@@ -31782,7 +31823,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>126</v>
       </c>
@@ -31796,7 +31837,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>126</v>
       </c>
@@ -31810,7 +31851,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>126</v>
       </c>
@@ -31824,7 +31865,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>126</v>
       </c>
@@ -31838,7 +31879,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>126</v>
       </c>
@@ -31852,7 +31893,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>126</v>
       </c>
@@ -31866,7 +31907,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>126</v>
       </c>
@@ -31880,7 +31921,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>126</v>
       </c>
@@ -31894,7 +31935,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>126</v>
       </c>
@@ -31908,7 +31949,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>126</v>
       </c>
@@ -31922,7 +31963,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>126</v>
       </c>
@@ -31936,7 +31977,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>126</v>
       </c>
@@ -31950,7 +31991,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>126</v>
       </c>
@@ -31964,7 +32005,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>126</v>
       </c>
@@ -31978,7 +32019,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>126</v>
       </c>
@@ -31992,7 +32033,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>126</v>
       </c>
@@ -32006,7 +32047,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>126</v>
       </c>
@@ -32020,7 +32061,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>126</v>
       </c>
@@ -32034,7 +32075,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>126</v>
       </c>
@@ -32048,7 +32089,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>126</v>
       </c>
@@ -32062,7 +32103,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>126</v>
       </c>
@@ -32076,7 +32117,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>126</v>
       </c>
@@ -32090,7 +32131,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>126</v>
       </c>
@@ -32104,7 +32145,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>126</v>
       </c>
@@ -32118,7 +32159,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>126</v>
       </c>
@@ -32132,7 +32173,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>126</v>
       </c>
@@ -32146,7 +32187,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>126</v>
       </c>
@@ -32160,7 +32201,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>126</v>
       </c>
@@ -32174,7 +32215,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>126</v>
       </c>
@@ -32188,7 +32229,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>126</v>
       </c>
@@ -32202,7 +32243,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>861</v>
       </c>
@@ -32216,7 +32257,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>861</v>
       </c>
@@ -32230,7 +32271,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>861</v>
       </c>
@@ -32244,7 +32285,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>861</v>
       </c>
@@ -32258,7 +32299,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>861</v>
       </c>
@@ -32272,7 +32313,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>861</v>
       </c>
@@ -32286,7 +32327,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>861</v>
       </c>
@@ -32300,7 +32341,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>861</v>
       </c>
@@ -32314,7 +32355,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>861</v>
       </c>
@@ -32328,7 +32369,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>861</v>
       </c>
@@ -32342,7 +32383,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>861</v>
       </c>
@@ -32356,7 +32397,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>861</v>
       </c>
@@ -32370,7 +32411,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>861</v>
       </c>
@@ -32384,7 +32425,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>861</v>
       </c>
@@ -32398,7 +32439,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>861</v>
       </c>
@@ -32412,7 +32453,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>861</v>
       </c>
@@ -32426,7 +32467,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>861</v>
       </c>
@@ -32440,7 +32481,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>861</v>
       </c>
@@ -32454,7 +32495,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>861</v>
       </c>
@@ -32468,7 +32509,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>861</v>
       </c>
@@ -32482,7 +32523,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>861</v>
       </c>
@@ -32496,7 +32537,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>861</v>
       </c>
@@ -32508,7 +32549,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>861</v>
       </c>
@@ -32522,7 +32563,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>861</v>
       </c>
@@ -32536,7 +32577,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>861</v>
       </c>
@@ -32550,7 +32591,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>861</v>
       </c>
@@ -32564,7 +32605,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>861</v>
       </c>
@@ -32576,7 +32617,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>861</v>
       </c>
@@ -32590,7 +32631,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>861</v>
       </c>
@@ -32602,7 +32643,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>861</v>
       </c>
@@ -32614,7 +32655,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>861</v>
       </c>
@@ -32643,7 +32684,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>861</v>
       </c>
@@ -32655,7 +32696,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>861</v>
       </c>
@@ -32667,7 +32708,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>861</v>
       </c>
@@ -32681,7 +32722,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>861</v>
       </c>
@@ -32695,7 +32736,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>861</v>
       </c>
@@ -32709,7 +32750,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>861</v>
       </c>
@@ -32723,7 +32764,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>861</v>
       </c>
@@ -32737,7 +32778,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>861</v>
       </c>
@@ -32751,7 +32792,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>861</v>
       </c>
@@ -32765,7 +32806,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>861</v>
       </c>
@@ -32779,7 +32820,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>861</v>
       </c>
@@ -32793,7 +32834,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>861</v>
       </c>
@@ -32807,7 +32848,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>861</v>
       </c>
@@ -32821,7 +32862,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>861</v>
       </c>
@@ -32835,7 +32876,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>861</v>
       </c>
@@ -32849,7 +32890,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>861</v>
       </c>
@@ -32863,7 +32904,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>861</v>
       </c>
@@ -32877,7 +32918,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>861</v>
       </c>
@@ -32891,7 +32932,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>861</v>
       </c>
@@ -32905,7 +32946,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>861</v>
       </c>
@@ -32919,7 +32960,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>861</v>
       </c>
@@ -32933,7 +32974,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>861</v>
       </c>
@@ -32947,7 +32988,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>861</v>
       </c>
@@ -32961,7 +33002,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>861</v>
       </c>
@@ -32973,7 +33014,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>861</v>
       </c>
@@ -32985,7 +33026,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>861</v>
       </c>
@@ -32999,7 +33040,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>861</v>
       </c>
@@ -33013,7 +33054,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>861</v>
       </c>
@@ -33027,7 +33068,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>861</v>
       </c>
@@ -33041,7 +33082,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>861</v>
       </c>
@@ -33055,7 +33096,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>861</v>
       </c>
@@ -33069,7 +33110,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>861</v>
       </c>
@@ -33083,7 +33124,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>861</v>
       </c>
@@ -33097,7 +33138,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>861</v>
       </c>
@@ -33111,7 +33152,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>861</v>
       </c>
@@ -33125,7 +33166,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>861</v>
       </c>
@@ -33139,7 +33180,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>861</v>
       </c>
@@ -33153,7 +33194,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>861</v>
       </c>
@@ -33167,7 +33208,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>861</v>
       </c>
@@ -33181,7 +33222,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>861</v>
       </c>
@@ -33195,7 +33236,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>861</v>
       </c>
@@ -33209,7 +33250,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>861</v>
       </c>
@@ -33223,7 +33264,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>861</v>
       </c>
@@ -33237,7 +33278,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>861</v>
       </c>
@@ -33251,7 +33292,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>861</v>
       </c>
@@ -33265,7 +33306,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>861</v>
       </c>
@@ -33279,7 +33320,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>861</v>
       </c>
@@ -33291,7 +33332,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>861</v>
       </c>
@@ -33303,7 +33344,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>776</v>
       </c>
@@ -33317,7 +33358,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>776</v>
       </c>
@@ -33331,7 +33372,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>776</v>
       </c>
@@ -33345,7 +33386,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>776</v>
       </c>
@@ -33359,7 +33400,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>776</v>
       </c>
@@ -33373,7 +33414,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>776</v>
       </c>
@@ -33387,7 +33428,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>776</v>
       </c>
@@ -33401,7 +33442,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>776</v>
       </c>
@@ -33415,7 +33456,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>776</v>
       </c>
@@ -33429,7 +33470,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>776</v>
       </c>
@@ -33441,7 +33482,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>776</v>
       </c>
@@ -33455,7 +33496,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>776</v>
       </c>
@@ -33469,7 +33510,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>776</v>
       </c>
@@ -33483,7 +33524,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>776</v>
       </c>
@@ -33497,7 +33538,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>776</v>
       </c>
@@ -33511,7 +33552,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>776</v>
       </c>
@@ -33525,7 +33566,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>776</v>
       </c>
@@ -33539,7 +33580,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>776</v>
       </c>
@@ -33553,7 +33594,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>776</v>
       </c>
@@ -33567,7 +33608,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>776</v>
       </c>
@@ -33581,7 +33622,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>776</v>
       </c>
@@ -33595,7 +33636,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>776</v>
       </c>
@@ -33609,7 +33650,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>970</v>
       </c>
@@ -33623,7 +33664,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>970</v>
       </c>
@@ -33637,7 +33678,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>970</v>
       </c>
@@ -33651,7 +33692,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>970</v>
       </c>
@@ -33665,7 +33706,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>970</v>
       </c>
@@ -33679,7 +33720,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>970</v>
       </c>
@@ -33693,7 +33734,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>970</v>
       </c>
@@ -33707,7 +33748,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>970</v>
       </c>
@@ -33721,7 +33762,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>970</v>
       </c>
@@ -33735,7 +33776,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>970</v>
       </c>
@@ -33749,7 +33790,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>970</v>
       </c>
@@ -33763,7 +33804,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>970</v>
       </c>
@@ -33777,7 +33818,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>970</v>
       </c>
@@ -33791,7 +33832,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>970</v>
       </c>
@@ -33803,7 +33844,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>970</v>
       </c>
@@ -33817,7 +33858,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>970</v>
       </c>
@@ -33831,7 +33872,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>970</v>
       </c>
@@ -33845,7 +33886,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>970</v>
       </c>
@@ -33859,7 +33900,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>970</v>
       </c>
@@ -33873,7 +33914,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>970</v>
       </c>
@@ -33887,7 +33928,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>970</v>
       </c>
@@ -33901,7 +33942,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>970</v>
       </c>
@@ -33915,7 +33956,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>970</v>
       </c>
@@ -33929,7 +33970,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>970</v>
       </c>
@@ -33943,7 +33984,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>970</v>
       </c>
@@ -33957,7 +33998,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>970</v>
       </c>
@@ -33971,7 +34012,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>970</v>
       </c>
@@ -33985,7 +34026,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>970</v>
       </c>
@@ -33999,7 +34040,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>970</v>
       </c>
@@ -34013,7 +34054,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>970</v>
       </c>
@@ -34027,7 +34068,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>970</v>
       </c>
@@ -34041,7 +34082,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>970</v>
       </c>
@@ -34055,7 +34096,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>970</v>
       </c>
@@ -34069,7 +34110,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>970</v>
       </c>
@@ -34083,7 +34124,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>970</v>
       </c>
@@ -34097,7 +34138,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>970</v>
       </c>
@@ -34111,7 +34152,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>970</v>
       </c>
@@ -34125,7 +34166,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>970</v>
       </c>
@@ -34139,7 +34180,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>970</v>
       </c>
@@ -34153,7 +34194,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>970</v>
       </c>
@@ -34167,7 +34208,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>970</v>
       </c>
@@ -34181,7 +34222,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>970</v>
       </c>
@@ -34195,7 +34236,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>829</v>
       </c>
@@ -34207,7 +34248,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>829</v>
       </c>
@@ -34221,7 +34262,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>829</v>
       </c>
@@ -34235,7 +34276,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>829</v>
       </c>
@@ -34249,7 +34290,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>829</v>
       </c>
@@ -34263,7 +34304,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>829</v>
       </c>
@@ -34277,7 +34318,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>829</v>
       </c>
@@ -34291,7 +34332,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>829</v>
       </c>
@@ -34305,7 +34346,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>829</v>
       </c>
@@ -34319,7 +34360,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>372</v>
       </c>
@@ -34333,7 +34374,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>372</v>
       </c>
@@ -34347,7 +34388,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>372</v>
       </c>
@@ -34361,7 +34402,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>372</v>
       </c>
@@ -34375,7 +34416,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>372</v>
       </c>
@@ -34389,7 +34430,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>372</v>
       </c>
@@ -34403,7 +34444,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>372</v>
       </c>
@@ -34417,7 +34458,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>372</v>
       </c>
@@ -34431,7 +34472,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>372</v>
       </c>
@@ -34445,7 +34486,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>372</v>
       </c>
@@ -34459,7 +34500,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>372</v>
       </c>
@@ -34473,7 +34514,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>372</v>
       </c>
@@ -34487,7 +34528,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>372</v>
       </c>
@@ -34501,7 +34542,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>372</v>
       </c>
@@ -34515,7 +34556,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>372</v>
       </c>
@@ -34529,7 +34570,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>372</v>
       </c>
@@ -34543,7 +34584,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>372</v>
       </c>
@@ -34557,7 +34598,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>372</v>
       </c>
@@ -34571,7 +34612,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>372</v>
       </c>
@@ -34585,7 +34626,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>372</v>
       </c>
@@ -34599,7 +34640,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>372</v>
       </c>
@@ -34613,7 +34654,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>372</v>
       </c>
@@ -34627,7 +34668,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>372</v>
       </c>
@@ -34641,7 +34682,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>372</v>
       </c>
@@ -34655,7 +34696,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>372</v>
       </c>
@@ -34669,7 +34710,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>372</v>
       </c>
@@ -34683,7 +34724,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>372</v>
       </c>
@@ -34697,7 +34738,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>372</v>
       </c>
@@ -34711,7 +34752,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>372</v>
       </c>
@@ -34725,7 +34766,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>372</v>
       </c>
@@ -34739,7 +34780,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>372</v>
       </c>
@@ -34753,7 +34794,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>372</v>
       </c>
@@ -34767,7 +34808,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>372</v>
       </c>
@@ -34781,7 +34822,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>372</v>
       </c>
@@ -34795,7 +34836,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>372</v>
       </c>
@@ -34809,7 +34850,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>372</v>
       </c>
@@ -34823,7 +34864,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>372</v>
       </c>
@@ -34837,7 +34878,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>372</v>
       </c>
@@ -34851,7 +34892,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>372</v>
       </c>
@@ -34865,7 +34906,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>372</v>
       </c>
@@ -34879,7 +34920,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>372</v>
       </c>
@@ -34893,7 +34934,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>372</v>
       </c>
@@ -34907,7 +34948,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>372</v>
       </c>
@@ -34921,7 +34962,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>372</v>
       </c>
@@ -34935,7 +34976,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>372</v>
       </c>
@@ -34949,7 +34990,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>372</v>
       </c>
@@ -34963,7 +35004,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>372</v>
       </c>
@@ -34977,7 +35018,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>372</v>
       </c>
@@ -34991,7 +35032,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>372</v>
       </c>
@@ -35005,7 +35046,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>372</v>
       </c>
@@ -35019,7 +35060,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>372</v>
       </c>
@@ -35033,7 +35074,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>372</v>
       </c>
@@ -35047,7 +35088,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>372</v>
       </c>
@@ -35061,7 +35102,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>372</v>
       </c>
@@ -35075,7 +35116,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>372</v>
       </c>
@@ -35089,7 +35130,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>372</v>
       </c>
@@ -35103,7 +35144,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>372</v>
       </c>
@@ -35117,7 +35158,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>372</v>
       </c>
@@ -35131,7 +35172,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>372</v>
       </c>
@@ -35145,7 +35186,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>372</v>
       </c>
@@ -35159,7 +35200,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>372</v>
       </c>
@@ -35173,7 +35214,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>372</v>
       </c>
@@ -35187,7 +35228,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>372</v>
       </c>
@@ -35201,7 +35242,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>372</v>
       </c>
@@ -35215,7 +35256,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>372</v>
       </c>
@@ -35229,7 +35270,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>372</v>
       </c>
@@ -35243,7 +35284,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>372</v>
       </c>
@@ -35257,7 +35298,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>372</v>
       </c>
@@ -35271,7 +35312,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>372</v>
       </c>
@@ -35285,7 +35326,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>372</v>
       </c>
@@ -35299,7 +35340,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>372</v>
       </c>
@@ -35313,7 +35354,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>372</v>
       </c>
@@ -35327,7 +35368,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>372</v>
       </c>
@@ -35341,7 +35382,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>372</v>
       </c>
@@ -35355,7 +35396,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>372</v>
       </c>
@@ -35369,7 +35410,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>372</v>
       </c>
@@ -35383,7 +35424,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>372</v>
       </c>
@@ -35397,7 +35438,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>372</v>
       </c>
@@ -35411,7 +35452,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>372</v>
       </c>
@@ -35425,7 +35466,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>372</v>
       </c>
@@ -35439,7 +35480,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>372</v>
       </c>
@@ -35453,7 +35494,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>372</v>
       </c>
@@ -35467,7 +35508,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>372</v>
       </c>
@@ -35481,7 +35522,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>372</v>
       </c>
@@ -35495,7 +35536,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>372</v>
       </c>
@@ -35509,7 +35550,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>372</v>
       </c>
@@ -35523,7 +35564,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>372</v>
       </c>
@@ -35537,7 +35578,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>372</v>
       </c>
@@ -35551,7 +35592,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>372</v>
       </c>
@@ -35565,7 +35606,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>372</v>
       </c>
@@ -35579,7 +35620,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>372</v>
       </c>
@@ -35593,7 +35634,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>372</v>
       </c>
@@ -35607,7 +35648,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>372</v>
       </c>
@@ -35621,7 +35662,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>372</v>
       </c>
@@ -35635,7 +35676,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>372</v>
       </c>
@@ -35649,7 +35690,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>372</v>
       </c>
@@ -35663,7 +35704,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>372</v>
       </c>
@@ -35677,7 +35718,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>372</v>
       </c>
@@ -35691,7 +35732,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>372</v>
       </c>
@@ -35705,7 +35746,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>372</v>
       </c>
@@ -35719,7 +35760,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>372</v>
       </c>
@@ -35731,7 +35772,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>372</v>
       </c>
@@ -35745,7 +35786,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>372</v>
       </c>
@@ -35759,7 +35800,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>372</v>
       </c>
@@ -35773,7 +35814,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>372</v>
       </c>
@@ -35787,7 +35828,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>372</v>
       </c>
@@ -35801,7 +35842,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>372</v>
       </c>
@@ -35815,7 +35856,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>372</v>
       </c>
@@ -35829,7 +35870,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>372</v>
       </c>
@@ -35843,7 +35884,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>372</v>
       </c>
@@ -35857,7 +35898,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>372</v>
       </c>
@@ -35871,7 +35912,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>372</v>
       </c>
@@ -35885,7 +35926,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>372</v>
       </c>
@@ -35899,7 +35940,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>372</v>
       </c>
@@ -35913,7 +35954,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>372</v>
       </c>
@@ -35927,7 +35968,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>372</v>
       </c>
@@ -35941,7 +35982,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>372</v>
       </c>
@@ -35955,7 +35996,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>372</v>
       </c>
@@ -35969,7 +36010,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>372</v>
       </c>
@@ -35983,7 +36024,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>372</v>
       </c>
@@ -35997,7 +36038,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>372</v>
       </c>
@@ -36011,7 +36052,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>372</v>
       </c>
@@ -36025,7 +36066,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>372</v>
       </c>
@@ -36039,7 +36080,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>372</v>
       </c>
@@ -36053,7 +36094,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>372</v>
       </c>
@@ -36067,7 +36108,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>372</v>
       </c>
@@ -36081,7 +36122,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>372</v>
       </c>
@@ -36095,7 +36136,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>372</v>
       </c>
@@ -36109,7 +36150,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>372</v>
       </c>
@@ -36123,7 +36164,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>372</v>
       </c>
@@ -36137,7 +36178,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>372</v>
       </c>
@@ -36151,7 +36192,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>372</v>
       </c>
@@ -36165,7 +36206,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>372</v>
       </c>
@@ -36179,7 +36220,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>372</v>
       </c>
@@ -36193,7 +36234,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>372</v>
       </c>
@@ -36207,7 +36248,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>372</v>
       </c>
@@ -36221,7 +36262,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>372</v>
       </c>
@@ -36235,7 +36276,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>372</v>
       </c>
@@ -36249,7 +36290,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>372</v>
       </c>
@@ -36263,7 +36304,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>372</v>
       </c>
@@ -36277,7 +36318,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>372</v>
       </c>
@@ -36291,7 +36332,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>372</v>
       </c>
@@ -36305,7 +36346,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>372</v>
       </c>
@@ -36319,7 +36360,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>372</v>
       </c>
@@ -36333,7 +36374,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>372</v>
       </c>
@@ -36347,7 +36388,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>372</v>
       </c>
@@ -36361,7 +36402,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>372</v>
       </c>
@@ -36375,7 +36416,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>372</v>
       </c>
@@ -36389,7 +36430,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>372</v>
       </c>
@@ -36403,7 +36444,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>372</v>
       </c>
@@ -36417,7 +36458,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>372</v>
       </c>
@@ -36431,7 +36472,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>372</v>
       </c>
@@ -36445,7 +36486,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>372</v>
       </c>
@@ -36459,7 +36500,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>372</v>
       </c>
@@ -36473,7 +36514,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>372</v>
       </c>
@@ -36487,7 +36528,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>372</v>
       </c>
@@ -36501,7 +36542,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>372</v>
       </c>
@@ -36515,7 +36556,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>372</v>
       </c>
@@ -36529,7 +36570,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>372</v>
       </c>
@@ -36543,7 +36584,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>372</v>
       </c>
@@ -36557,7 +36598,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>372</v>
       </c>
@@ -36571,7 +36612,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>372</v>
       </c>
@@ -36585,7 +36626,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>372</v>
       </c>
@@ -36599,7 +36640,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>372</v>
       </c>
@@ -36613,7 +36654,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>372</v>
       </c>
@@ -36627,7 +36668,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>372</v>
       </c>
@@ -36641,7 +36682,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>372</v>
       </c>
@@ -36655,7 +36696,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>372</v>
       </c>
@@ -36669,7 +36710,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>372</v>
       </c>
@@ -36683,7 +36724,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>372</v>
       </c>
@@ -36697,7 +36738,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>372</v>
       </c>
@@ -36711,7 +36752,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>372</v>
       </c>
@@ -36725,7 +36766,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>372</v>
       </c>
@@ -36739,7 +36780,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>372</v>
       </c>
@@ -36753,7 +36794,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>372</v>
       </c>
@@ -36767,7 +36808,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>372</v>
       </c>
@@ -36781,7 +36822,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>372</v>
       </c>
@@ -36795,7 +36836,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>372</v>
       </c>
@@ -36809,7 +36850,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>372</v>
       </c>
@@ -36823,7 +36864,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>372</v>
       </c>
@@ -36837,7 +36878,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>372</v>
       </c>
@@ -36851,7 +36892,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>372</v>
       </c>
@@ -36865,7 +36906,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>372</v>
       </c>
@@ -36879,7 +36920,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>372</v>
       </c>
@@ -36893,7 +36934,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>372</v>
       </c>
@@ -36907,7 +36948,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>372</v>
       </c>
@@ -36921,7 +36962,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>372</v>
       </c>
@@ -36935,7 +36976,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>372</v>
       </c>
@@ -36949,7 +36990,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>372</v>
       </c>
@@ -36963,7 +37004,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>372</v>
       </c>
@@ -36977,7 +37018,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>372</v>
       </c>
@@ -36991,7 +37032,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>372</v>
       </c>
@@ -37005,7 +37046,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>372</v>
       </c>
@@ -37019,7 +37060,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>372</v>
       </c>
@@ -37033,7 +37074,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>372</v>
       </c>
@@ -37047,7 +37088,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>798</v>
       </c>
@@ -37061,7 +37102,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>798</v>
       </c>
@@ -37075,7 +37116,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>798</v>
       </c>
@@ -37087,7 +37128,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>798</v>
       </c>
@@ -37099,7 +37140,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>798</v>
       </c>
@@ -37113,7 +37154,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>798</v>
       </c>
@@ -37125,7 +37166,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>798</v>
       </c>
@@ -37139,7 +37180,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>798</v>
       </c>
@@ -37153,7 +37194,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>798</v>
       </c>
@@ -37167,7 +37208,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>798</v>
       </c>
@@ -37198,7 +37239,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>4</v>
       </c>
@@ -37212,7 +37253,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>4</v>
       </c>
@@ -37226,7 +37267,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>4</v>
       </c>
@@ -37240,7 +37281,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>4</v>
       </c>
@@ -37254,7 +37295,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>4</v>
       </c>
@@ -37268,7 +37309,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>4</v>
       </c>
@@ -37282,7 +37323,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>4</v>
       </c>
@@ -37296,7 +37337,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>4</v>
       </c>
@@ -37310,7 +37351,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>4</v>
       </c>
@@ -37324,7 +37365,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>4</v>
       </c>
@@ -37338,7 +37379,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>4</v>
       </c>
@@ -37362,11 +37403,14 @@
       <c r="C692" s="10" t="s">
         <v>1008</v>
       </c>
+      <c r="D692" t="s">
+        <v>998</v>
+      </c>
       <c r="E692" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>4</v>
       </c>
@@ -37380,7 +37424,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>4</v>
       </c>
@@ -37404,11 +37448,14 @@
       <c r="C695" s="10" t="s">
         <v>1008</v>
       </c>
+      <c r="D695" t="s">
+        <v>998</v>
+      </c>
       <c r="E695" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>4</v>
       </c>
@@ -37422,7 +37469,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>4</v>
       </c>
@@ -37453,7 +37500,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>4</v>
       </c>
@@ -37467,7 +37514,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>4</v>
       </c>
@@ -37481,7 +37528,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>4</v>
       </c>
@@ -37495,7 +37542,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>4</v>
       </c>
@@ -37509,7 +37556,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>4</v>
       </c>
@@ -37523,7 +37570,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>4</v>
       </c>
@@ -37537,7 +37584,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>4</v>
       </c>
@@ -37551,7 +37598,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>4</v>
       </c>
@@ -37565,7 +37612,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>4</v>
       </c>
@@ -37579,7 +37626,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>4</v>
       </c>
@@ -37593,7 +37640,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>4</v>
       </c>
@@ -37607,7 +37654,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>4</v>
       </c>
@@ -37621,7 +37668,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>4</v>
       </c>
@@ -37635,7 +37682,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>4</v>
       </c>
@@ -37649,7 +37696,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>4</v>
       </c>
@@ -37663,7 +37710,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>4</v>
       </c>
@@ -37677,7 +37724,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>4</v>
       </c>
@@ -37708,7 +37755,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>4</v>
       </c>
@@ -37722,7 +37769,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>4</v>
       </c>
@@ -37736,7 +37783,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>4</v>
       </c>
@@ -37750,7 +37797,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>4</v>
       </c>
@@ -37764,7 +37811,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>4</v>
       </c>
@@ -37778,7 +37825,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>4</v>
       </c>
@@ -37792,7 +37839,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>4</v>
       </c>
@@ -37806,7 +37853,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>4</v>
       </c>
@@ -37820,7 +37867,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>4</v>
       </c>
@@ -37834,7 +37881,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>4</v>
       </c>
@@ -37848,7 +37895,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>4</v>
       </c>
@@ -37862,7 +37909,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>4</v>
       </c>
@@ -37876,7 +37923,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>4</v>
       </c>
@@ -37888,7 +37935,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>4</v>
       </c>
@@ -37902,7 +37949,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>4</v>
       </c>
@@ -37933,7 +37980,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>4</v>
       </c>
@@ -37947,7 +37994,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>4</v>
       </c>
@@ -37995,7 +38042,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>4</v>
       </c>
@@ -38009,7 +38056,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>4</v>
       </c>
@@ -38019,11 +38066,17 @@
       <c r="C738" s="10" t="s">
         <v>1008</v>
       </c>
+      <c r="D738" t="s">
+        <v>1209</v>
+      </c>
       <c r="E738" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>4</v>
       </c>
@@ -38040,7 +38093,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>4</v>
       </c>
@@ -38054,7 +38107,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>4</v>
       </c>
@@ -38068,7 +38121,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>4</v>
       </c>
@@ -38082,7 +38135,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>4</v>
       </c>
@@ -38096,7 +38149,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>4</v>
       </c>
@@ -38110,7 +38163,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>4</v>
       </c>
@@ -38124,7 +38177,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>4</v>
       </c>
@@ -38138,7 +38191,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>4</v>
       </c>
@@ -38152,7 +38205,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>4</v>
       </c>
@@ -38166,7 +38219,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>4</v>
       </c>
@@ -38180,7 +38233,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>4</v>
       </c>
@@ -38194,7 +38247,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>4</v>
       </c>
@@ -38211,7 +38264,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>4</v>
       </c>
@@ -38225,7 +38278,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>4</v>
       </c>
@@ -38239,7 +38292,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>4</v>
       </c>
@@ -38253,7 +38306,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>4</v>
       </c>
@@ -38267,7 +38320,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>4</v>
       </c>
@@ -38298,7 +38351,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>4</v>
       </c>
@@ -38312,7 +38365,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>4</v>
       </c>
@@ -38326,7 +38379,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>4</v>
       </c>
@@ -38340,7 +38393,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>4</v>
       </c>
@@ -38354,7 +38407,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>4</v>
       </c>
@@ -38368,7 +38421,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>4</v>
       </c>
@@ -38399,7 +38452,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>4</v>
       </c>
@@ -38430,7 +38483,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>4</v>
       </c>
@@ -38444,7 +38497,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>4</v>
       </c>
@@ -38458,7 +38511,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>4</v>
       </c>
@@ -38472,7 +38525,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>4</v>
       </c>
@@ -38486,7 +38539,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>4</v>
       </c>
@@ -38500,7 +38553,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>4</v>
       </c>
@@ -38514,7 +38567,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>4</v>
       </c>
@@ -38528,7 +38581,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>4</v>
       </c>
@@ -38542,7 +38595,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>4</v>
       </c>
@@ -38556,7 +38609,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>4</v>
       </c>
@@ -38570,7 +38623,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>4</v>
       </c>
@@ -38584,7 +38637,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>4</v>
       </c>
@@ -38598,7 +38651,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>4</v>
       </c>
@@ -38612,7 +38665,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>4</v>
       </c>
@@ -38626,7 +38679,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>4</v>
       </c>
@@ -38640,7 +38693,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>4</v>
       </c>
@@ -38654,7 +38707,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>4</v>
       </c>
@@ -38685,7 +38738,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>4</v>
       </c>
@@ -38699,7 +38752,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>4</v>
       </c>
@@ -38713,7 +38766,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>4</v>
       </c>
@@ -38727,7 +38780,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>4</v>
       </c>
@@ -38741,7 +38794,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -38755,7 +38808,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>4</v>
       </c>
@@ -38769,7 +38822,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>4</v>
       </c>
@@ -38783,7 +38836,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>4</v>
       </c>
@@ -38797,7 +38850,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -38811,7 +38864,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>4</v>
       </c>
@@ -38825,7 +38878,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>4</v>
       </c>
@@ -38839,7 +38892,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>4</v>
       </c>
@@ -38853,7 +38906,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -38884,7 +38937,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>4</v>
       </c>
@@ -38898,7 +38951,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>807</v>
       </c>
@@ -38912,7 +38965,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>807</v>
       </c>
@@ -38926,7 +38979,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>807</v>
       </c>
@@ -38940,7 +38993,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>807</v>
       </c>
@@ -38954,7 +39007,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>807</v>
       </c>
@@ -38968,7 +39021,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>807</v>
       </c>
@@ -38982,7 +39035,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>807</v>
       </c>
@@ -38996,7 +39049,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>807</v>
       </c>
@@ -39010,7 +39063,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>975</v>
       </c>
@@ -39022,7 +39075,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>975</v>
       </c>
@@ -39034,7 +39087,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>975</v>
       </c>
@@ -39046,7 +39099,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>975</v>
       </c>
@@ -39060,7 +39113,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>975</v>
       </c>
@@ -39072,7 +39125,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>975</v>
       </c>
@@ -39084,7 +39137,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>975</v>
       </c>
@@ -39098,7 +39151,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>975</v>
       </c>
@@ -39112,7 +39165,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>975</v>
       </c>
@@ -39126,7 +39179,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>975</v>
       </c>
@@ -39138,7 +39191,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>975</v>
       </c>
@@ -39150,7 +39203,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>815</v>
       </c>
@@ -39164,7 +39217,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>815</v>
       </c>
@@ -39178,7 +39231,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>815</v>
       </c>
@@ -39192,7 +39245,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>815</v>
       </c>
@@ -39206,7 +39259,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>815</v>
       </c>
@@ -39220,7 +39273,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>815</v>
       </c>
@@ -39234,7 +39287,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>815</v>
       </c>
@@ -39248,7 +39301,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>815</v>
       </c>
@@ -39262,7 +39315,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>815</v>
       </c>
@@ -39276,7 +39329,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>815</v>
       </c>
@@ -39290,7 +39343,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>815</v>
       </c>
@@ -39304,7 +39357,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>815</v>
       </c>
@@ -39318,7 +39371,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>815</v>
       </c>
@@ -39332,7 +39385,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>815</v>
       </c>
@@ -39346,7 +39399,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>845</v>
       </c>
@@ -39360,7 +39413,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>845</v>
       </c>
@@ -39372,7 +39425,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>845</v>
       </c>
@@ -39384,7 +39437,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>845</v>
       </c>
@@ -39396,7 +39449,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>845</v>
       </c>
@@ -39410,7 +39463,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>845</v>
       </c>
@@ -39424,7 +39477,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>845</v>
       </c>
@@ -39436,7 +39489,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>845</v>
       </c>
@@ -39450,7 +39503,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>845</v>
       </c>
@@ -39462,7 +39515,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>845</v>
       </c>
@@ -39476,7 +39529,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>845</v>
       </c>
@@ -39490,7 +39543,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>845</v>
       </c>
@@ -39504,7 +39557,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>845</v>
       </c>
@@ -39518,7 +39571,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>845</v>
       </c>
@@ -39532,7 +39585,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>845</v>
       </c>
@@ -39546,7 +39599,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>845</v>
       </c>
@@ -39560,7 +39613,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>845</v>
       </c>
@@ -39572,7 +39625,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>644</v>
       </c>
@@ -39586,7 +39639,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>644</v>
       </c>
@@ -39600,7 +39653,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>644</v>
       </c>
@@ -39614,7 +39667,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>644</v>
       </c>
@@ -39628,7 +39681,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>644</v>
       </c>
@@ -39642,7 +39695,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>644</v>
       </c>
@@ -39656,7 +39709,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>644</v>
       </c>
@@ -39670,7 +39723,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>644</v>
       </c>
@@ -39684,7 +39737,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>644</v>
       </c>
@@ -39698,7 +39751,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>644</v>
       </c>
@@ -39712,7 +39765,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>644</v>
       </c>
@@ -39726,7 +39779,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>644</v>
       </c>
@@ -39740,7 +39793,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>644</v>
       </c>
@@ -39754,7 +39807,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>644</v>
       </c>
@@ -39768,7 +39821,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>644</v>
       </c>
@@ -39782,7 +39835,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>644</v>
       </c>
@@ -39796,7 +39849,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>644</v>
       </c>
@@ -39810,7 +39863,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>644</v>
       </c>
@@ -39824,7 +39877,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>644</v>
       </c>
@@ -39838,7 +39891,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>644</v>
       </c>
@@ -39852,7 +39905,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>644</v>
       </c>
@@ -39866,7 +39919,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>644</v>
       </c>
@@ -39880,7 +39933,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>644</v>
       </c>
@@ -39894,7 +39947,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>644</v>
       </c>
@@ -39908,7 +39961,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>644</v>
       </c>
@@ -39922,7 +39975,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>644</v>
       </c>
@@ -39936,7 +39989,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>644</v>
       </c>
@@ -39950,7 +40003,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>644</v>
       </c>
@@ -39964,7 +40017,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>644</v>
       </c>
@@ -39995,7 +40048,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>644</v>
       </c>
@@ -40026,7 +40079,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>644</v>
       </c>
@@ -40040,7 +40093,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>644</v>
       </c>
@@ -40054,7 +40107,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>644</v>
       </c>
@@ -40068,7 +40121,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>644</v>
       </c>
@@ -40082,7 +40135,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>644</v>
       </c>
@@ -40096,7 +40149,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>644</v>
       </c>
@@ -40110,7 +40163,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>644</v>
       </c>
@@ -40124,7 +40177,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>644</v>
       </c>
@@ -40138,7 +40191,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>644</v>
       </c>
@@ -40152,7 +40205,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>644</v>
       </c>
@@ -40166,7 +40219,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>644</v>
       </c>
@@ -40180,7 +40233,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>644</v>
       </c>
@@ -40194,7 +40247,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>644</v>
       </c>
@@ -40208,7 +40261,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>644</v>
       </c>
@@ -40222,7 +40275,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>644</v>
       </c>
@@ -40236,7 +40289,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>644</v>
       </c>
@@ -40250,7 +40303,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>644</v>
       </c>
@@ -40264,7 +40317,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>644</v>
       </c>
@@ -40278,7 +40331,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>644</v>
       </c>
@@ -40292,7 +40345,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>644</v>
       </c>
@@ -40306,7 +40359,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>644</v>
       </c>
@@ -40337,7 +40390,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>644</v>
       </c>
@@ -40351,7 +40404,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>644</v>
       </c>
@@ -40365,7 +40418,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>644</v>
       </c>
@@ -40379,7 +40432,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>644</v>
       </c>
@@ -40393,7 +40446,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>644</v>
       </c>
@@ -40407,7 +40460,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>644</v>
       </c>
@@ -40421,7 +40474,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>644</v>
       </c>
@@ -40433,7 +40486,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>644</v>
       </c>
@@ -40447,7 +40500,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>644</v>
       </c>
@@ -40461,7 +40514,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>644</v>
       </c>
@@ -40475,7 +40528,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>644</v>
       </c>
@@ -40489,7 +40542,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>644</v>
       </c>
@@ -40503,7 +40556,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>644</v>
       </c>
@@ -40517,7 +40570,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>644</v>
       </c>
@@ -40531,7 +40584,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>644</v>
       </c>
@@ -40545,7 +40598,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>644</v>
       </c>
@@ -40559,7 +40612,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>644</v>
       </c>
@@ -40573,7 +40626,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>644</v>
       </c>
@@ -40587,7 +40640,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>644</v>
       </c>
@@ -40601,7 +40654,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>644</v>
       </c>
@@ -40615,7 +40668,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>644</v>
       </c>
@@ -40629,7 +40682,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>644</v>
       </c>
@@ -40643,7 +40696,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>644</v>
       </c>
@@ -40657,7 +40710,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>644</v>
       </c>
@@ -40671,7 +40724,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>644</v>
       </c>
@@ -40685,7 +40738,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>644</v>
       </c>
@@ -40699,7 +40752,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>644</v>
       </c>
@@ -40713,7 +40766,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>644</v>
       </c>
@@ -40727,7 +40780,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>644</v>
       </c>
@@ -40741,7 +40794,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>644</v>
       </c>
@@ -40755,7 +40808,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>644</v>
       </c>
@@ -40769,7 +40822,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>644</v>
       </c>
@@ -40783,7 +40836,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>644</v>
       </c>
@@ -40797,7 +40850,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>644</v>
       </c>
@@ -40811,7 +40864,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>644</v>
       </c>
@@ -40825,7 +40878,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>644</v>
       </c>
@@ -40839,7 +40892,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>644</v>
       </c>
@@ -40853,7 +40906,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>644</v>
       </c>
@@ -40867,7 +40920,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>644</v>
       </c>
@@ -40881,7 +40934,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>644</v>
       </c>
@@ -40895,7 +40948,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>644</v>
       </c>
@@ -40909,7 +40962,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>644</v>
       </c>
@@ -40923,7 +40976,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>644</v>
       </c>
@@ -40937,7 +40990,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>644</v>
       </c>
@@ -40951,7 +41004,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>644</v>
       </c>
@@ -40965,7 +41018,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>644</v>
       </c>
@@ -40988,6 +41041,614 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448F426B-9B29-4972-AE8E-E6AAF0A6B994}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B23" t="s">
+        <v>862</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>690</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>981</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B42" t="s">
+        <v>996</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774AB2D9-9964-4C90-92D1-0FFE1F38796F}">
   <dimension ref="A3:B174"/>
   <sheetViews>
